--- a/data/checked/china/fujian/fujianCaseStatistics_20200327.xlsx
+++ b/data/checked/china/fujian/fujianCaseStatistics_20200327.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\checked\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC469D70-F497-4681-A641-AACA633C1462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D85A353-56E1-425E-AF1A-A77B943A23DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10369,12 +10369,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -10388,6 +10390,7 @@
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -10801,8 +10804,8 @@
   <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" customHeight="1"/>
@@ -16677,7 +16680,7 @@
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
       <c r="M77" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N77" s="20"/>
       <c r="O77" s="20"/>
@@ -16753,7 +16756,7 @@
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
       <c r="M78" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78" s="20"/>
       <c r="O78" s="20"/>
@@ -16827,7 +16830,7 @@
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
       <c r="M79" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N79" s="20"/>
       <c r="O79" s="20"/>
